--- a/Statistics/Sample Mean and Std Dev vs Population/Standard Deviation and Mean over Num of Observations - v06.xlsx
+++ b/Statistics/Sample Mean and Std Dev vs Population/Standard Deviation and Mean over Num of Observations - v06.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10303"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/washingtonalto/Library/CloudStorage/OneDrive-Personal/Documents/Personal/My Personal Projects/Excel/Statistical Study/Standard Deviation and Mean/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fcbf0fe29d15ca/Documents/Personal/My Personal Projects/GitHub/exceldashboards/Statistics/Sample Mean and Std Dev vs Population/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B722A1-2691-FB46-8A38-574A98B63502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{C3B722A1-2691-FB46-8A38-574A98B63502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3652BF37-2429-904A-A18B-0F6935611DE3}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14040" xr2:uid="{DFD9EC77-4B0A-2F40-9FD2-0255CE61EFEE}"/>
   </bookViews>
@@ -423,7 +423,7 @@
               <c:f>[0]!Num_of_observations</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -498,231 +498,6 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -732,306 +507,81 @@
               <c:f>[0]!StdDev_per_Observation</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4142135623730951</c:v>
+                  <c:v>21.213203435596427</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.440306508910551</c:v>
+                  <c:v>18.929694486000905</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.424330514074594</c:v>
+                  <c:v>19.465781943365815</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.639246421387959</c:v>
+                  <c:v>16.876018487783195</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.956619620232949</c:v>
+                  <c:v>17.084105673598089</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.592547215141046</c:v>
+                  <c:v>16.509737386507052</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.121671335384423</c:v>
+                  <c:v>24.103571163981965</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.673707872752935</c:v>
+                  <c:v>22.662989897873391</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.349537983296518</c:v>
+                  <c:v>21.965882636488796</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.12692252450692</c:v>
+                  <c:v>20.839211292002563</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.767600584243311</c:v>
+                  <c:v>21.391728789559306</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.398616962144683</c:v>
+                  <c:v>20.627029814647546</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27.250567087556295</c:v>
+                  <c:v>20.002747064088229</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26.382353409591261</c:v>
+                  <c:v>19.853750994999125</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27.361088550470114</c:v>
+                  <c:v>19.689993228371954</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.155816450602174</c:v>
+                  <c:v>24.234455296734271</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.656475447155085</c:v>
+                  <c:v>23.931001033335747</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29.87449380520043</c:v>
+                  <c:v>24.612196852742116</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30.65959109831358</c:v>
+                  <c:v>25.398456231577711</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31.27641740535968</c:v>
+                  <c:v>25.59799099259828</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>30.530695645913095</c:v>
+                  <c:v>25.562587651603021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>30.605742311706685</c:v>
+                  <c:v>25.009089256799125</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>30.194748319649172</c:v>
+                  <c:v>26.127301230039382</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>30.137186331839274</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>29.531443477184684</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>28.981868779440674</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29.161541499816199</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29.205025210346005</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>28.797669126622676</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>28.379191225679001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>28.999443821140499</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>29.421537926141692</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>29.319799178812911</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>29.890472330400765</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>30.236042300014297</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>30.237175575552467</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>30.075970663966952</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>29.82929390094375</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>29.682238062690899</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>29.460660002872952</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>29.976578158543013</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>30.005758029920958</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>29.781267435477375</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>29.528277835308849</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>29.533940190709497</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>29.218672194512209</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>29.042125188439517</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>29.54339308254778</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>29.526992147967299</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>29.266764929041351</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>29.28017773932487</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>29.087364026475626</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>28.880637024978402</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>28.746634995578589</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>29.190457211352349</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>29.407686581490697</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>29.366743539832623</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>29.2317070033688</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>29.018229220933588</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>29.476145769060565</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>29.607140362490423</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>29.51403633889856</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>29.746877753994806</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>29.879952116118567</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>29.979091392934528</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>30.312133187268952</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>30.091665634352854</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>30.272342963637598</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>30.566361976395715</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>30.58331629193399</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>30.722032970803788</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>30.767008759482749</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>30.630523816337778</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>30.718571428870689</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>30.940270698188677</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>30.937377491351437</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>30.84104942556802</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>30.664161731091905</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>30.471235658102966</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>30.502721999564496</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>30.316589579532444</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>30.539641504167271</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>30.387257176945216</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>30.480709792716233</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>30.324990709965725</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>30.216318917035824</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>30.070754251149403</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>29.900925952709521</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>30.174324974064451</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>30.006234598398294</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>29.870438097645067</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>29.845174741538514</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>29.684299382552222</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>29.880062601966287</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>29.842716352541466</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>29.763655937680646</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>30.001355253769912</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>30.121946885764654</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>29.975577601194818</c:v>
+                  <c:v>25.653329868329639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1066,7 +616,7 @@
               <c:f>[0]!Num_of_observations</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1141,231 +691,6 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1375,306 +700,81 @@
               <c:f>[0]!Baseline_stddev</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>29.825323133203437</c:v>
+                  <c:v>25.135027352282709</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.825323133203437</c:v>
+                  <c:v>25.135027352282709</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.825323133203437</c:v>
+                  <c:v>25.135027352282709</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.825323133203437</c:v>
+                  <c:v>25.135027352282709</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.825323133203437</c:v>
+                  <c:v>25.135027352282709</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.825323133203437</c:v>
+                  <c:v>25.135027352282709</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.825323133203437</c:v>
+                  <c:v>25.135027352282709</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.825323133203437</c:v>
+                  <c:v>25.135027352282709</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.825323133203437</c:v>
+                  <c:v>25.135027352282709</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.825323133203437</c:v>
+                  <c:v>25.135027352282709</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.825323133203437</c:v>
+                  <c:v>25.135027352282709</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.825323133203437</c:v>
+                  <c:v>25.135027352282709</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.825323133203437</c:v>
+                  <c:v>25.135027352282709</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29.825323133203437</c:v>
+                  <c:v>25.135027352282709</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29.825323133203437</c:v>
+                  <c:v>25.135027352282709</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29.825323133203437</c:v>
+                  <c:v>25.135027352282709</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29.825323133203437</c:v>
+                  <c:v>25.135027352282709</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.825323133203437</c:v>
+                  <c:v>25.135027352282709</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29.825323133203437</c:v>
+                  <c:v>25.135027352282709</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29.825323133203437</c:v>
+                  <c:v>25.135027352282709</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29.825323133203437</c:v>
+                  <c:v>25.135027352282709</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>29.825323133203437</c:v>
+                  <c:v>25.135027352282709</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>29.825323133203437</c:v>
+                  <c:v>25.135027352282709</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>29.825323133203437</c:v>
+                  <c:v>25.135027352282709</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>29.825323133203437</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>29.825323133203437</c:v>
+                  <c:v>25.135027352282709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1726,7 +826,7 @@
               <c:f>[0]!Num_of_observations</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1801,231 +901,6 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2456,306 +1331,81 @@
               <c:f>[0]!Actual_values</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>57</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>97</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>12</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>49</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>85</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>73</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>56</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2790,7 +1440,7 @@
               <c:f>[0]!Num_of_observations</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2865,231 +1515,6 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3099,306 +1524,81 @@
               <c:f>[0]!Mean_per_observation</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>57</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>69.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.714285714285708</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.888888888888886</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62.846153846153847</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63.6875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60.058823529411768</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>61.111111111111114</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59.263157894736842</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61.15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>62.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>63.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>53.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>49.333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>53.714285714285715</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>56.125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>51.777777777777779</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>48.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>48.363636363636367</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>53.615384615384613</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>56.857142857142854</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>56.2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>58.6875</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>58.277777777777779</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>56.473684210526315</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>54.3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>52.285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>52.136363636363633</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>53.565217391304351</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>54.375</c:v>
+                  <c:v>62.125</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>53.2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>53.115384615384613</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>52.888888888888886</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>54.107142857142854</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>55.172413793103445</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>54.733333333333334</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>54.387096774193552</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>51.757575757575758</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>52.529411764705884</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>53.828571428571429</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>52.694444444444443</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>51.864864864864863</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>51.236842105263158</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>51.717948717948715</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>51.125</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>50.658536585365852</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>49.547619047619051</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>48.813953488372093</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>49.227272727272727</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>48.888888888888886</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>49.543478260869563</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>49.446808510638299</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>49.041666666666664</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>50.020408163265309</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49.44</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>49.235294117647058</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>48.653846153846153</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>48.339622641509436</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>48.611111111111114</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>48.236363636363635</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>49.089285714285715</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>49.789473684210527</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>50.258620689655174</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>49.915254237288138</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>50.1</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>50.918032786885249</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>50.322580645161288</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>49.952380952380949</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>50.609375</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>50.030769230769231</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>49.484848484848484</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>50.194029850746269</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>50.117647058823529</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>50.710144927536234</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>50.042857142857144</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>50.492957746478872</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>51.041666666666664</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>50.575342465753423</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>50.824324324324323</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>50.333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>50.921052631578945</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>50.519480519480517</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>50.807692307692307</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>50.936708860759495</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>50.9</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>51.308641975308639</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>51.353658536585364</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>50.807228915662648</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>50.654761904761905</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>50.211764705882352</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>50.081395348837212</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>50.298850574712645</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>50.159090909090907</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>50.19101123595506</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>50.733333333333334</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>50.736263736263737</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>50.597826086956523</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>50.301075268817208</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>50.297872340425535</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>50.768421052631581</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>51.041666666666664</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>50.824742268041234</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>50.336734693877553</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>49.929292929292927</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>49.99</c:v>
+                  <c:v>62.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3433,7 +1633,7 @@
               <c:f>[0]!Num_of_observations</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3508,231 +1708,6 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3742,306 +1717,81 @@
               <c:f>[0]!Baseline_mean</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>49.99</c:v>
+                  <c:v>62.52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.99</c:v>
+                  <c:v>62.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.99</c:v>
+                  <c:v>62.52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.99</c:v>
+                  <c:v>62.52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.99</c:v>
+                  <c:v>62.52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.99</c:v>
+                  <c:v>62.52</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.99</c:v>
+                  <c:v>62.52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.99</c:v>
+                  <c:v>62.52</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.99</c:v>
+                  <c:v>62.52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49.99</c:v>
+                  <c:v>62.52</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.99</c:v>
+                  <c:v>62.52</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49.99</c:v>
+                  <c:v>62.52</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49.99</c:v>
+                  <c:v>62.52</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>49.99</c:v>
+                  <c:v>62.52</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>49.99</c:v>
+                  <c:v>62.52</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49.99</c:v>
+                  <c:v>62.52</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49.99</c:v>
+                  <c:v>62.52</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>49.99</c:v>
+                  <c:v>62.52</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>49.99</c:v>
+                  <c:v>62.52</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49.99</c:v>
+                  <c:v>62.52</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49.99</c:v>
+                  <c:v>62.52</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>49.99</c:v>
+                  <c:v>62.52</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>49.99</c:v>
+                  <c:v>62.52</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49.99</c:v>
+                  <c:v>62.52</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>49.99</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>49.99</c:v>
+                  <c:v>62.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5893,8 +3643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718029F4-9573-C349-89F5-CCC7F9CA5E20}">
   <dimension ref="B2:G1009"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5913,7 +3663,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="12">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
@@ -5949,22 +3699,22 @@
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="str">
         <f>"Baseline Mean for "&amp;$D$2&amp;" observations"</f>
-        <v>Baseline Mean for 100 observations</v>
+        <v>Baseline Mean for 25 observations</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">AVERAGE(_xlfn.ANCHORARRAY(C10))</f>
-        <v>49.99</v>
+        <v>62.52</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="str">
         <f>"Baseline Std Dev for "&amp;$D$2&amp;" observations"</f>
-        <v>Baseline Std Dev for 100 observations</v>
+        <v>Baseline Std Dev for 25 observations</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">_xlfn.STDEV.P(_xlfn.ANCHORARRAY(C10))</f>
-        <v>29.825323133203437</v>
+        <v>25.135027352282709</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
@@ -5989,20 +3739,20 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" cm="1">
-        <f t="array" ref="B10:B109">_xlfn.SEQUENCE($D$2,1,1,1)</f>
+        <f t="array" ref="B10:B34">_xlfn.SEQUENCE($D$2,1,1,1)</f>
         <v>1</v>
       </c>
       <c r="C10" cm="1">
-        <f t="array" aca="1" ref="C10:C109" ca="1">RandNumberArrayGenerator(_xlfn.ANCHORARRAY(B10),$D$3,$D$4)</f>
-        <v>57</v>
+        <f t="array" aca="1" ref="C10:C34" ca="1">RandNumberArrayGenerator(_xlfn.ANCHORARRAY(B10),$D$3,$D$4)</f>
+        <v>78</v>
       </c>
       <c r="D10" s="11">
         <f ca="1">IF(NOT(ISBLANK($B10)),AVERAGE($C$10:C10),"")</f>
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="E10" s="11">
         <f ca="1">IF(NOT(ISBLANK($B10)),$D$6,"")</f>
-        <v>49.99</v>
+        <v>62.52</v>
       </c>
       <c r="F10" s="11" t="str">
         <f ca="1">IFERROR(IF(NOT(ISBLANK($B10)),_xlfn.STDEV.S($C$10:C10),""),"")</f>
@@ -6010,7 +3760,7 @@
       </c>
       <c r="G10" s="11">
         <f ca="1">IF(NOT(ISBLANK($B10)),$D$7,"")</f>
-        <v>29.825323133203437</v>
+        <v>25.135027352282709</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
@@ -6019,23 +3769,23 @@
       </c>
       <c r="C11">
         <f ca="1"/>
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D11" s="11">
         <f ca="1">IF(NOT(ISBLANK($B11)),AVERAGE($C$10:C11),"")</f>
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" ref="E11:E74" ca="1" si="0">IF(NOT(ISBLANK($B11)),$D$6,"")</f>
-        <v>49.99</v>
+        <v>62.52</v>
       </c>
       <c r="F11" s="11">
         <f ca="1">IFERROR(IF(NOT(ISBLANK($B11)),_xlfn.STDEV.S($C$10:C11),""),"")</f>
-        <v>1.4142135623730951</v>
+        <v>21.213203435596427</v>
       </c>
       <c r="G11" s="11">
         <f t="shared" ref="G11:G74" ca="1" si="1">IF(NOT(ISBLANK($B11)),$D$7,"")</f>
-        <v>29.825323133203437</v>
+        <v>25.135027352282709</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
@@ -6044,23 +3794,23 @@
       </c>
       <c r="C12">
         <f ca="1"/>
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D12" s="11">
         <f ca="1">IF(NOT(ISBLANK($B12)),AVERAGE($C$10:C12),"")</f>
-        <v>64</v>
+        <v>69.666666666666671</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
+        <v>62.52</v>
       </c>
       <c r="F12" s="11">
         <f ca="1">IFERROR(IF(NOT(ISBLANK($B12)),_xlfn.STDEV.S($C$10:C12),""),"")</f>
-        <v>10.440306508910551</v>
+        <v>18.929694486000905</v>
       </c>
       <c r="G12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+        <v>25.135027352282709</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
@@ -6069,23 +3819,23 @@
       </c>
       <c r="C13">
         <f ca="1"/>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D13" s="11">
         <f ca="1">IF(NOT(ISBLANK($B13)),AVERAGE($C$10:C13),"")</f>
-        <v>61</v>
+        <v>63.75</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
+        <v>62.52</v>
       </c>
       <c r="F13" s="11">
         <f ca="1">IFERROR(IF(NOT(ISBLANK($B13)),_xlfn.STDEV.S($C$10:C13),""),"")</f>
-        <v>10.424330514074594</v>
+        <v>19.465781943365815</v>
       </c>
       <c r="G13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+        <v>25.135027352282709</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
@@ -6094,23 +3844,23 @@
       </c>
       <c r="C14">
         <f ca="1"/>
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D14" s="11">
         <f ca="1">IF(NOT(ISBLANK($B14)),AVERAGE($C$10:C14),"")</f>
-        <v>53.2</v>
+        <v>63.4</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
+        <v>62.52</v>
       </c>
       <c r="F14" s="11">
         <f ca="1">IFERROR(IF(NOT(ISBLANK($B14)),_xlfn.STDEV.S($C$10:C14),""),"")</f>
-        <v>19.639246421387959</v>
+        <v>16.876018487783195</v>
       </c>
       <c r="G14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+        <v>25.135027352282709</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
@@ -6119,23 +3869,23 @@
       </c>
       <c r="C15">
         <f ca="1"/>
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="D15" s="11">
         <f ca="1">IF(NOT(ISBLANK($B15)),AVERAGE($C$10:C15),"")</f>
-        <v>49.333333333333336</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
+        <v>62.52</v>
       </c>
       <c r="F15" s="11">
         <f ca="1">IFERROR(IF(NOT(ISBLANK($B15)),_xlfn.STDEV.S($C$10:C15),""),"")</f>
-        <v>19.956619620232949</v>
+        <v>17.084105673598089</v>
       </c>
       <c r="G15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+        <v>25.135027352282709</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
@@ -6144,23 +3894,23 @@
       </c>
       <c r="C16">
         <f ca="1"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D16" s="11">
         <f ca="1">IF(NOT(ISBLANK($B16)),AVERAGE($C$10:C16),"")</f>
-        <v>53.714285714285715</v>
+        <v>68.714285714285708</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
+        <v>62.52</v>
       </c>
       <c r="F16" s="11">
         <f ca="1">IFERROR(IF(NOT(ISBLANK($B16)),_xlfn.STDEV.S($C$10:C16),""),"")</f>
-        <v>21.592547215141046</v>
+        <v>16.509737386507052</v>
       </c>
       <c r="G16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+        <v>25.135027352282709</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
@@ -6169,23 +3919,23 @@
       </c>
       <c r="C17">
         <f ca="1"/>
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="D17" s="11">
         <f ca="1">IF(NOT(ISBLANK($B17)),AVERAGE($C$10:C17),"")</f>
-        <v>56.125</v>
+        <v>62.125</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
+        <v>62.52</v>
       </c>
       <c r="F17" s="11">
         <f ca="1">IFERROR(IF(NOT(ISBLANK($B17)),_xlfn.STDEV.S($C$10:C17),""),"")</f>
-        <v>21.121671335384423</v>
+        <v>24.103571163981965</v>
       </c>
       <c r="G17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+        <v>25.135027352282709</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
@@ -6194,23 +3944,23 @@
       </c>
       <c r="C18">
         <f ca="1"/>
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="D18" s="11">
         <f ca="1">IF(NOT(ISBLANK($B18)),AVERAGE($C$10:C18),"")</f>
-        <v>51.777777777777779</v>
+        <v>62.888888888888886</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
+        <v>62.52</v>
       </c>
       <c r="F18" s="11">
         <f ca="1">IFERROR(IF(NOT(ISBLANK($B18)),_xlfn.STDEV.S($C$10:C18),""),"")</f>
-        <v>23.673707872752935</v>
+        <v>22.662989897873391</v>
       </c>
       <c r="G18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+        <v>25.135027352282709</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
@@ -6219,23 +3969,23 @@
       </c>
       <c r="C19">
         <f ca="1"/>
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D19" s="11">
         <f ca="1">IF(NOT(ISBLANK($B19)),AVERAGE($C$10:C19),"")</f>
-        <v>48.7</v>
+        <v>64.5</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
+        <v>62.52</v>
       </c>
       <c r="F19" s="11">
         <f ca="1">IFERROR(IF(NOT(ISBLANK($B19)),_xlfn.STDEV.S($C$10:C19),""),"")</f>
-        <v>24.349537983296518</v>
+        <v>21.965882636488796</v>
       </c>
       <c r="G19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+        <v>25.135027352282709</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
@@ -6244,23 +3994,23 @@
       </c>
       <c r="C20">
         <f ca="1"/>
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D20" s="11">
         <f ca="1">IF(NOT(ISBLANK($B20)),AVERAGE($C$10:C20),"")</f>
-        <v>48.363636363636367</v>
+        <v>64.454545454545453</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
+        <v>62.52</v>
       </c>
       <c r="F20" s="11">
         <f ca="1">IFERROR(IF(NOT(ISBLANK($B20)),_xlfn.STDEV.S($C$10:C20),""),"")</f>
-        <v>23.12692252450692</v>
+        <v>20.839211292002563</v>
       </c>
       <c r="G20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+        <v>25.135027352282709</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
@@ -6269,23 +4019,23 @@
       </c>
       <c r="C21">
         <f ca="1"/>
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="D21" s="11">
         <f ca="1">IF(NOT(ISBLANK($B21)),AVERAGE($C$10:C21),"")</f>
-        <v>50</v>
+        <v>62.166666666666664</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
+        <v>62.52</v>
       </c>
       <c r="F21" s="11">
         <f ca="1">IFERROR(IF(NOT(ISBLANK($B21)),_xlfn.STDEV.S($C$10:C21),""),"")</f>
-        <v>22.767600584243311</v>
+        <v>21.391728789559306</v>
       </c>
       <c r="G21" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+        <v>25.135027352282709</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
@@ -6294,23 +4044,23 @@
       </c>
       <c r="C22">
         <f ca="1"/>
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="D22" s="11">
         <f ca="1">IF(NOT(ISBLANK($B22)),AVERAGE($C$10:C22),"")</f>
-        <v>53.615384615384613</v>
+        <v>62.846153846153847</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
+        <v>62.52</v>
       </c>
       <c r="F22" s="11">
         <f ca="1">IFERROR(IF(NOT(ISBLANK($B22)),_xlfn.STDEV.S($C$10:C22),""),"")</f>
-        <v>25.398616962144683</v>
+        <v>20.627029814647546</v>
       </c>
       <c r="G22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+        <v>25.135027352282709</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
@@ -6319,23 +4069,23 @@
       </c>
       <c r="C23">
         <f ca="1"/>
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="D23" s="11">
         <f ca="1">IF(NOT(ISBLANK($B23)),AVERAGE($C$10:C23),"")</f>
-        <v>56.857142857142854</v>
+        <v>63.571428571428569</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
+        <v>62.52</v>
       </c>
       <c r="F23" s="11">
         <f ca="1">IFERROR(IF(NOT(ISBLANK($B23)),_xlfn.STDEV.S($C$10:C23),""),"")</f>
-        <v>27.250567087556295</v>
+        <v>20.002747064088229</v>
       </c>
       <c r="G23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+        <v>25.135027352282709</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
@@ -6344,23 +4094,23 @@
       </c>
       <c r="C24">
         <f ca="1"/>
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="D24" s="11">
         <f ca="1">IF(NOT(ISBLANK($B24)),AVERAGE($C$10:C24),"")</f>
-        <v>56.2</v>
+        <v>64.8</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
+        <v>62.52</v>
       </c>
       <c r="F24" s="11">
         <f ca="1">IFERROR(IF(NOT(ISBLANK($B24)),_xlfn.STDEV.S($C$10:C24),""),"")</f>
-        <v>26.382353409591261</v>
+        <v>19.853750994999125</v>
       </c>
       <c r="G24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+        <v>25.135027352282709</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
@@ -6369,23 +4119,23 @@
       </c>
       <c r="C25">
         <f ca="1"/>
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="D25" s="11">
         <f ca="1">IF(NOT(ISBLANK($B25)),AVERAGE($C$10:C25),"")</f>
-        <v>58.6875</v>
+        <v>63.6875</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
+        <v>62.52</v>
       </c>
       <c r="F25" s="11">
         <f ca="1">IFERROR(IF(NOT(ISBLANK($B25)),_xlfn.STDEV.S($C$10:C25),""),"")</f>
-        <v>27.361088550470114</v>
+        <v>19.689993228371954</v>
       </c>
       <c r="G25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+        <v>25.135027352282709</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
@@ -6394,23 +4144,23 @@
       </c>
       <c r="C26">
         <f ca="1"/>
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="D26" s="11">
         <f ca="1">IF(NOT(ISBLANK($B26)),AVERAGE($C$10:C26),"")</f>
-        <v>61</v>
+        <v>60.058823529411768</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
+        <v>62.52</v>
       </c>
       <c r="F26" s="11">
         <f ca="1">IFERROR(IF(NOT(ISBLANK($B26)),_xlfn.STDEV.S($C$10:C26),""),"")</f>
-        <v>28.155816450602174</v>
+        <v>24.234455296734271</v>
       </c>
       <c r="G26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+        <v>25.135027352282709</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
@@ -6419,23 +4169,23 @@
       </c>
       <c r="C27">
         <f ca="1"/>
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D27" s="11">
         <f ca="1">IF(NOT(ISBLANK($B27)),AVERAGE($C$10:C27),"")</f>
-        <v>58.277777777777779</v>
+        <v>61.111111111111114</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
+        <v>62.52</v>
       </c>
       <c r="F27" s="11">
         <f ca="1">IFERROR(IF(NOT(ISBLANK($B27)),_xlfn.STDEV.S($C$10:C27),""),"")</f>
-        <v>29.656475447155085</v>
+        <v>23.931001033335747</v>
       </c>
       <c r="G27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+        <v>25.135027352282709</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
@@ -6444,23 +4194,23 @@
       </c>
       <c r="C28">
         <f ca="1"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D28" s="11">
         <f ca="1">IF(NOT(ISBLANK($B28)),AVERAGE($C$10:C28),"")</f>
-        <v>56.473684210526315</v>
+        <v>59.263157894736842</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
+        <v>62.52</v>
       </c>
       <c r="F28" s="11">
         <f ca="1">IFERROR(IF(NOT(ISBLANK($B28)),_xlfn.STDEV.S($C$10:C28),""),"")</f>
-        <v>29.87449380520043</v>
+        <v>24.612196852742116</v>
       </c>
       <c r="G28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+        <v>25.135027352282709</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
@@ -6469,23 +4219,23 @@
       </c>
       <c r="C29">
         <f ca="1"/>
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="D29" s="11">
         <f ca="1">IF(NOT(ISBLANK($B29)),AVERAGE($C$10:C29),"")</f>
-        <v>54.3</v>
+        <v>61.15</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
+        <v>62.52</v>
       </c>
       <c r="F29" s="11">
         <f ca="1">IFERROR(IF(NOT(ISBLANK($B29)),_xlfn.STDEV.S($C$10:C29),""),"")</f>
-        <v>30.65959109831358</v>
+        <v>25.398456231577711</v>
       </c>
       <c r="G29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+        <v>25.135027352282709</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
@@ -6494,23 +4244,23 @@
       </c>
       <c r="C30">
         <f ca="1"/>
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D30" s="11">
         <f ca="1">IF(NOT(ISBLANK($B30)),AVERAGE($C$10:C30),"")</f>
-        <v>52.285714285714285</v>
+        <v>62.571428571428569</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
+        <v>62.52</v>
       </c>
       <c r="F30" s="11">
         <f ca="1">IFERROR(IF(NOT(ISBLANK($B30)),_xlfn.STDEV.S($C$10:C30),""),"")</f>
-        <v>31.27641740535968</v>
+        <v>25.59799099259828</v>
       </c>
       <c r="G30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+        <v>25.135027352282709</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
@@ -6519,23 +4269,23 @@
       </c>
       <c r="C31">
         <f ca="1"/>
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="D31" s="11">
         <f ca="1">IF(NOT(ISBLANK($B31)),AVERAGE($C$10:C31),"")</f>
-        <v>52.136363636363633</v>
+        <v>63.727272727272727</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
+        <v>62.52</v>
       </c>
       <c r="F31" s="11">
         <f ca="1">IFERROR(IF(NOT(ISBLANK($B31)),_xlfn.STDEV.S($C$10:C31),""),"")</f>
-        <v>30.530695645913095</v>
+        <v>25.562587651603021</v>
       </c>
       <c r="G31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+        <v>25.135027352282709</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
@@ -6544,23 +4294,23 @@
       </c>
       <c r="C32">
         <f ca="1"/>
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D32" s="11">
         <f ca="1">IF(NOT(ISBLANK($B32)),AVERAGE($C$10:C32),"")</f>
-        <v>53.565217391304351</v>
+        <v>64</v>
       </c>
       <c r="E32" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
+        <v>62.52</v>
       </c>
       <c r="F32" s="11">
         <f ca="1">IFERROR(IF(NOT(ISBLANK($B32)),_xlfn.STDEV.S($C$10:C32),""),"")</f>
-        <v>30.605742311706685</v>
+        <v>25.009089256799125</v>
       </c>
       <c r="G32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+        <v>25.135027352282709</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
@@ -6569,23 +4319,23 @@
       </c>
       <c r="C33">
         <f ca="1"/>
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D33" s="11">
         <f ca="1">IF(NOT(ISBLANK($B33)),AVERAGE($C$10:C33),"")</f>
-        <v>54.375</v>
+        <v>62.125</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
+        <v>62.52</v>
       </c>
       <c r="F33" s="11">
         <f ca="1">IFERROR(IF(NOT(ISBLANK($B33)),_xlfn.STDEV.S($C$10:C33),""),"")</f>
-        <v>30.194748319649172</v>
+        <v>26.127301230039382</v>
       </c>
       <c r="G33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+        <v>25.135027352282709</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
@@ -6594,1901 +4344,1376 @@
       </c>
       <c r="C34">
         <f ca="1"/>
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="D34" s="11">
         <f ca="1">IF(NOT(ISBLANK($B34)),AVERAGE($C$10:C34),"")</f>
-        <v>53.2</v>
+        <v>62.52</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
+        <v>62.52</v>
       </c>
       <c r="F34" s="11">
         <f ca="1">IFERROR(IF(NOT(ISBLANK($B34)),_xlfn.STDEV.S($C$10:C34),""),"")</f>
-        <v>30.137186331839274</v>
+        <v>25.653329868329639</v>
       </c>
       <c r="G34" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+        <v>25.135027352282709</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35">
-        <v>26</v>
-      </c>
-      <c r="C35">
-        <f ca="1"/>
-        <v>51</v>
-      </c>
-      <c r="D35" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B35)),AVERAGE($C$10:C35),"")</f>
-        <v>53.115384615384613</v>
-      </c>
-      <c r="E35" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F35" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B35)),_xlfn.STDEV.S($C$10:C35),""),"")</f>
-        <v>29.531443477184684</v>
-      </c>
-      <c r="G35" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+      <c r="D35" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B35)),AVERAGE($C$10:C35),"")</f>
+        <v/>
+      </c>
+      <c r="E35" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F35" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B35)),_xlfn.STDEV.S($C$10:C35),""),"")</f>
+        <v/>
+      </c>
+      <c r="G35" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36">
-        <v>27</v>
-      </c>
-      <c r="C36">
-        <f ca="1"/>
-        <v>47</v>
-      </c>
-      <c r="D36" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B36)),AVERAGE($C$10:C36),"")</f>
-        <v>52.888888888888886</v>
-      </c>
-      <c r="E36" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F36" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B36)),_xlfn.STDEV.S($C$10:C36),""),"")</f>
-        <v>28.981868779440674</v>
-      </c>
-      <c r="G36" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+      <c r="D36" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B36)),AVERAGE($C$10:C36),"")</f>
+        <v/>
+      </c>
+      <c r="E36" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F36" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B36)),_xlfn.STDEV.S($C$10:C36),""),"")</f>
+        <v/>
+      </c>
+      <c r="G36" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37">
-        <v>28</v>
-      </c>
-      <c r="C37">
-        <f ca="1"/>
-        <v>87</v>
-      </c>
-      <c r="D37" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B37)),AVERAGE($C$10:C37),"")</f>
-        <v>54.107142857142854</v>
-      </c>
-      <c r="E37" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F37" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B37)),_xlfn.STDEV.S($C$10:C37),""),"")</f>
-        <v>29.161541499816199</v>
-      </c>
-      <c r="G37" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+      <c r="D37" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B37)),AVERAGE($C$10:C37),"")</f>
+        <v/>
+      </c>
+      <c r="E37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F37" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B37)),_xlfn.STDEV.S($C$10:C37),""),"")</f>
+        <v/>
+      </c>
+      <c r="G37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38">
-        <v>29</v>
-      </c>
-      <c r="C38">
-        <f ca="1"/>
-        <v>85</v>
-      </c>
-      <c r="D38" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B38)),AVERAGE($C$10:C38),"")</f>
-        <v>55.172413793103445</v>
-      </c>
-      <c r="E38" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F38" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B38)),_xlfn.STDEV.S($C$10:C38),""),"")</f>
-        <v>29.205025210346005</v>
-      </c>
-      <c r="G38" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+      <c r="D38" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B38)),AVERAGE($C$10:C38),"")</f>
+        <v/>
+      </c>
+      <c r="E38" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F38" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B38)),_xlfn.STDEV.S($C$10:C38),""),"")</f>
+        <v/>
+      </c>
+      <c r="G38" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39">
-        <v>30</v>
-      </c>
-      <c r="C39">
-        <f ca="1"/>
-        <v>42</v>
-      </c>
-      <c r="D39" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B39)),AVERAGE($C$10:C39),"")</f>
-        <v>54.733333333333334</v>
-      </c>
-      <c r="E39" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F39" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B39)),_xlfn.STDEV.S($C$10:C39),""),"")</f>
-        <v>28.797669126622676</v>
-      </c>
-      <c r="G39" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+      <c r="D39" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B39)),AVERAGE($C$10:C39),"")</f>
+        <v/>
+      </c>
+      <c r="E39" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F39" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B39)),_xlfn.STDEV.S($C$10:C39),""),"")</f>
+        <v/>
+      </c>
+      <c r="G39" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40">
-        <v>31</v>
-      </c>
-      <c r="C40">
-        <f ca="1"/>
-        <v>44</v>
-      </c>
-      <c r="D40" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B40)),AVERAGE($C$10:C40),"")</f>
-        <v>54.387096774193552</v>
-      </c>
-      <c r="E40" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F40" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B40)),_xlfn.STDEV.S($C$10:C40),""),"")</f>
-        <v>28.379191225679001</v>
-      </c>
-      <c r="G40" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+      <c r="D40" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B40)),AVERAGE($C$10:C40),"")</f>
+        <v/>
+      </c>
+      <c r="E40" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F40" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B40)),_xlfn.STDEV.S($C$10:C40),""),"")</f>
+        <v/>
+      </c>
+      <c r="G40" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41">
-        <v>32</v>
-      </c>
-      <c r="C41">
-        <f ca="1"/>
-        <v>10</v>
-      </c>
-      <c r="D41" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B41)),AVERAGE($C$10:C41),"")</f>
-        <v>53</v>
-      </c>
-      <c r="E41" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F41" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B41)),_xlfn.STDEV.S($C$10:C41),""),"")</f>
-        <v>28.999443821140499</v>
-      </c>
-      <c r="G41" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+      <c r="D41" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B41)),AVERAGE($C$10:C41),"")</f>
+        <v/>
+      </c>
+      <c r="E41" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F41" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B41)),_xlfn.STDEV.S($C$10:C41),""),"")</f>
+        <v/>
+      </c>
+      <c r="G41" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42">
-        <v>33</v>
-      </c>
-      <c r="C42">
-        <f ca="1"/>
-        <v>12</v>
-      </c>
-      <c r="D42" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B42)),AVERAGE($C$10:C42),"")</f>
-        <v>51.757575757575758</v>
-      </c>
-      <c r="E42" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F42" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B42)),_xlfn.STDEV.S($C$10:C42),""),"")</f>
-        <v>29.421537926141692</v>
-      </c>
-      <c r="G42" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+      <c r="D42" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B42)),AVERAGE($C$10:C42),"")</f>
+        <v/>
+      </c>
+      <c r="E42" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F42" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B42)),_xlfn.STDEV.S($C$10:C42),""),"")</f>
+        <v/>
+      </c>
+      <c r="G42" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43">
-        <v>34</v>
-      </c>
-      <c r="C43">
-        <f ca="1"/>
-        <v>78</v>
-      </c>
-      <c r="D43" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B43)),AVERAGE($C$10:C43),"")</f>
-        <v>52.529411764705884</v>
-      </c>
-      <c r="E43" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F43" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B43)),_xlfn.STDEV.S($C$10:C43),""),"")</f>
-        <v>29.319799178812911</v>
-      </c>
-      <c r="G43" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+      <c r="D43" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B43)),AVERAGE($C$10:C43),"")</f>
+        <v/>
+      </c>
+      <c r="E43" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F43" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B43)),_xlfn.STDEV.S($C$10:C43),""),"")</f>
+        <v/>
+      </c>
+      <c r="G43" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44">
-        <v>35</v>
-      </c>
-      <c r="C44">
-        <f ca="1"/>
-        <v>98</v>
-      </c>
-      <c r="D44" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B44)),AVERAGE($C$10:C44),"")</f>
-        <v>53.828571428571429</v>
-      </c>
-      <c r="E44" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F44" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B44)),_xlfn.STDEV.S($C$10:C44),""),"")</f>
-        <v>29.890472330400765</v>
-      </c>
-      <c r="G44" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+      <c r="D44" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B44)),AVERAGE($C$10:C44),"")</f>
+        <v/>
+      </c>
+      <c r="E44" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F44" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B44)),_xlfn.STDEV.S($C$10:C44),""),"")</f>
+        <v/>
+      </c>
+      <c r="G44" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B45">
-        <v>36</v>
-      </c>
-      <c r="C45">
-        <f ca="1"/>
-        <v>13</v>
-      </c>
-      <c r="D45" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B45)),AVERAGE($C$10:C45),"")</f>
-        <v>52.694444444444443</v>
-      </c>
-      <c r="E45" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F45" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B45)),_xlfn.STDEV.S($C$10:C45),""),"")</f>
-        <v>30.236042300014297</v>
-      </c>
-      <c r="G45" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+      <c r="D45" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B45)),AVERAGE($C$10:C45),"")</f>
+        <v/>
+      </c>
+      <c r="E45" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F45" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B45)),_xlfn.STDEV.S($C$10:C45),""),"")</f>
+        <v/>
+      </c>
+      <c r="G45" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B46">
-        <v>37</v>
-      </c>
-      <c r="C46">
-        <f ca="1"/>
-        <v>22</v>
-      </c>
-      <c r="D46" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B46)),AVERAGE($C$10:C46),"")</f>
-        <v>51.864864864864863</v>
-      </c>
-      <c r="E46" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F46" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B46)),_xlfn.STDEV.S($C$10:C46),""),"")</f>
-        <v>30.237175575552467</v>
-      </c>
-      <c r="G46" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+      <c r="D46" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B46)),AVERAGE($C$10:C46),"")</f>
+        <v/>
+      </c>
+      <c r="E46" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F46" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B46)),_xlfn.STDEV.S($C$10:C46),""),"")</f>
+        <v/>
+      </c>
+      <c r="G46" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B47">
-        <v>38</v>
-      </c>
-      <c r="C47">
-        <f ca="1"/>
-        <v>28</v>
-      </c>
-      <c r="D47" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B47)),AVERAGE($C$10:C47),"")</f>
-        <v>51.236842105263158</v>
-      </c>
-      <c r="E47" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F47" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B47)),_xlfn.STDEV.S($C$10:C47),""),"")</f>
-        <v>30.075970663966952</v>
-      </c>
-      <c r="G47" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
+      <c r="D47" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B47)),AVERAGE($C$10:C47),"")</f>
+        <v/>
+      </c>
+      <c r="E47" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F47" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B47)),_xlfn.STDEV.S($C$10:C47),""),"")</f>
+        <v/>
+      </c>
+      <c r="G47" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B48">
-        <v>39</v>
-      </c>
-      <c r="C48">
-        <f ca="1"/>
-        <v>70</v>
-      </c>
-      <c r="D48" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B48)),AVERAGE($C$10:C48),"")</f>
-        <v>51.717948717948715</v>
-      </c>
-      <c r="E48" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F48" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B48)),_xlfn.STDEV.S($C$10:C48),""),"")</f>
-        <v>29.82929390094375</v>
-      </c>
-      <c r="G48" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49">
-        <v>40</v>
-      </c>
-      <c r="C49">
-        <f ca="1"/>
-        <v>28</v>
-      </c>
-      <c r="D49" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B49)),AVERAGE($C$10:C49),"")</f>
-        <v>51.125</v>
-      </c>
-      <c r="E49" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F49" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B49)),_xlfn.STDEV.S($C$10:C49),""),"")</f>
-        <v>29.682238062690899</v>
-      </c>
-      <c r="G49" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50">
-        <v>41</v>
-      </c>
-      <c r="C50">
-        <f ca="1"/>
-        <v>32</v>
-      </c>
-      <c r="D50" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B50)),AVERAGE($C$10:C50),"")</f>
-        <v>50.658536585365852</v>
-      </c>
-      <c r="E50" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F50" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B50)),_xlfn.STDEV.S($C$10:C50),""),"")</f>
-        <v>29.460660002872952</v>
-      </c>
-      <c r="G50" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51">
-        <v>42</v>
-      </c>
-      <c r="C51">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="D51" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B51)),AVERAGE($C$10:C51),"")</f>
-        <v>49.547619047619051</v>
-      </c>
-      <c r="E51" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F51" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B51)),_xlfn.STDEV.S($C$10:C51),""),"")</f>
-        <v>29.976578158543013</v>
-      </c>
-      <c r="G51" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52">
-        <v>43</v>
-      </c>
-      <c r="C52">
-        <f ca="1"/>
-        <v>18</v>
-      </c>
-      <c r="D52" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B52)),AVERAGE($C$10:C52),"")</f>
-        <v>48.813953488372093</v>
-      </c>
-      <c r="E52" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F52" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B52)),_xlfn.STDEV.S($C$10:C52),""),"")</f>
-        <v>30.005758029920958</v>
-      </c>
-      <c r="G52" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53">
-        <v>44</v>
-      </c>
-      <c r="C53">
-        <f ca="1"/>
-        <v>67</v>
-      </c>
-      <c r="D53" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B53)),AVERAGE($C$10:C53),"")</f>
-        <v>49.227272727272727</v>
-      </c>
-      <c r="E53" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F53" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B53)),_xlfn.STDEV.S($C$10:C53),""),"")</f>
-        <v>29.781267435477375</v>
-      </c>
-      <c r="G53" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54">
-        <v>45</v>
-      </c>
-      <c r="C54">
-        <f ca="1"/>
-        <v>34</v>
-      </c>
-      <c r="D54" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B54)),AVERAGE($C$10:C54),"")</f>
-        <v>48.888888888888886</v>
-      </c>
-      <c r="E54" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F54" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B54)),_xlfn.STDEV.S($C$10:C54),""),"")</f>
-        <v>29.528277835308849</v>
-      </c>
-      <c r="G54" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B55">
-        <v>46</v>
-      </c>
-      <c r="C55">
-        <f ca="1"/>
-        <v>79</v>
-      </c>
-      <c r="D55" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B55)),AVERAGE($C$10:C55),"")</f>
-        <v>49.543478260869563</v>
-      </c>
-      <c r="E55" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F55" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B55)),_xlfn.STDEV.S($C$10:C55),""),"")</f>
-        <v>29.533940190709497</v>
-      </c>
-      <c r="G55" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B56">
-        <v>47</v>
-      </c>
-      <c r="C56">
-        <f ca="1"/>
-        <v>45</v>
-      </c>
-      <c r="D56" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B56)),AVERAGE($C$10:C56),"")</f>
-        <v>49.446808510638299</v>
-      </c>
-      <c r="E56" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F56" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B56)),_xlfn.STDEV.S($C$10:C56),""),"")</f>
-        <v>29.218672194512209</v>
-      </c>
-      <c r="G56" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B57">
-        <v>48</v>
-      </c>
-      <c r="C57">
-        <f ca="1"/>
-        <v>30</v>
-      </c>
-      <c r="D57" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B57)),AVERAGE($C$10:C57),"")</f>
-        <v>49.041666666666664</v>
-      </c>
-      <c r="E57" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F57" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B57)),_xlfn.STDEV.S($C$10:C57),""),"")</f>
-        <v>29.042125188439517</v>
-      </c>
-      <c r="G57" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B58">
-        <v>49</v>
-      </c>
-      <c r="C58">
-        <f ca="1"/>
-        <v>97</v>
-      </c>
-      <c r="D58" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B58)),AVERAGE($C$10:C58),"")</f>
-        <v>50.020408163265309</v>
-      </c>
-      <c r="E58" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F58" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B58)),_xlfn.STDEV.S($C$10:C58),""),"")</f>
-        <v>29.54339308254778</v>
-      </c>
-      <c r="G58" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B59">
-        <v>50</v>
-      </c>
-      <c r="C59">
-        <f ca="1"/>
-        <v>21</v>
-      </c>
-      <c r="D59" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B59)),AVERAGE($C$10:C59),"")</f>
-        <v>49.44</v>
-      </c>
-      <c r="E59" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F59" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B59)),_xlfn.STDEV.S($C$10:C59),""),"")</f>
-        <v>29.526992147967299</v>
-      </c>
-      <c r="G59" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B60">
-        <v>51</v>
-      </c>
-      <c r="C60">
-        <f ca="1"/>
-        <v>39</v>
-      </c>
-      <c r="D60" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B60)),AVERAGE($C$10:C60),"")</f>
-        <v>49.235294117647058</v>
-      </c>
-      <c r="E60" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F60" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B60)),_xlfn.STDEV.S($C$10:C60),""),"")</f>
-        <v>29.266764929041351</v>
-      </c>
-      <c r="G60" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B61">
-        <v>52</v>
-      </c>
-      <c r="C61">
-        <f ca="1"/>
-        <v>19</v>
-      </c>
-      <c r="D61" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B61)),AVERAGE($C$10:C61),"")</f>
-        <v>48.653846153846153</v>
-      </c>
-      <c r="E61" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F61" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B61)),_xlfn.STDEV.S($C$10:C61),""),"")</f>
-        <v>29.28017773932487</v>
-      </c>
-      <c r="G61" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B62">
-        <v>53</v>
-      </c>
-      <c r="C62">
-        <f ca="1"/>
-        <v>32</v>
-      </c>
-      <c r="D62" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B62)),AVERAGE($C$10:C62),"")</f>
-        <v>48.339622641509436</v>
-      </c>
-      <c r="E62" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F62" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B62)),_xlfn.STDEV.S($C$10:C62),""),"")</f>
-        <v>29.087364026475626</v>
-      </c>
-      <c r="G62" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B63">
-        <v>54</v>
-      </c>
-      <c r="C63">
-        <f ca="1"/>
-        <v>63</v>
-      </c>
-      <c r="D63" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B63)),AVERAGE($C$10:C63),"")</f>
-        <v>48.611111111111114</v>
-      </c>
-      <c r="E63" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F63" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B63)),_xlfn.STDEV.S($C$10:C63),""),"")</f>
-        <v>28.880637024978402</v>
-      </c>
-      <c r="G63" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B64">
-        <v>55</v>
-      </c>
-      <c r="C64">
-        <f ca="1"/>
-        <v>28</v>
-      </c>
-      <c r="D64" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B64)),AVERAGE($C$10:C64),"")</f>
-        <v>48.236363636363635</v>
-      </c>
-      <c r="E64" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F64" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B64)),_xlfn.STDEV.S($C$10:C64),""),"")</f>
-        <v>28.746634995578589</v>
-      </c>
-      <c r="G64" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B65">
-        <v>56</v>
-      </c>
-      <c r="C65">
-        <f ca="1"/>
-        <v>96</v>
-      </c>
-      <c r="D65" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B65)),AVERAGE($C$10:C65),"")</f>
-        <v>49.089285714285715</v>
-      </c>
-      <c r="E65" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F65" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B65)),_xlfn.STDEV.S($C$10:C65),""),"")</f>
-        <v>29.190457211352349</v>
-      </c>
-      <c r="G65" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B66">
-        <v>57</v>
-      </c>
-      <c r="C66">
-        <f ca="1"/>
-        <v>89</v>
-      </c>
-      <c r="D66" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B66)),AVERAGE($C$10:C66),"")</f>
-        <v>49.789473684210527</v>
-      </c>
-      <c r="E66" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F66" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B66)),_xlfn.STDEV.S($C$10:C66),""),"")</f>
-        <v>29.407686581490697</v>
-      </c>
-      <c r="G66" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B67">
-        <v>58</v>
-      </c>
-      <c r="C67">
-        <f ca="1"/>
-        <v>77</v>
-      </c>
-      <c r="D67" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B67)),AVERAGE($C$10:C67),"")</f>
-        <v>50.258620689655174</v>
-      </c>
-      <c r="E67" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F67" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B67)),_xlfn.STDEV.S($C$10:C67),""),"")</f>
-        <v>29.366743539832623</v>
-      </c>
-      <c r="G67" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B68">
-        <v>59</v>
-      </c>
-      <c r="C68">
-        <f ca="1"/>
-        <v>30</v>
-      </c>
-      <c r="D68" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B68)),AVERAGE($C$10:C68),"")</f>
-        <v>49.915254237288138</v>
-      </c>
-      <c r="E68" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F68" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B68)),_xlfn.STDEV.S($C$10:C68),""),"")</f>
-        <v>29.2317070033688</v>
-      </c>
-      <c r="G68" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B69">
-        <v>60</v>
-      </c>
-      <c r="C69">
-        <f ca="1"/>
-        <v>61</v>
-      </c>
-      <c r="D69" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B69)),AVERAGE($C$10:C69),"")</f>
-        <v>50.1</v>
-      </c>
-      <c r="E69" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F69" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B69)),_xlfn.STDEV.S($C$10:C69),""),"")</f>
-        <v>29.018229220933588</v>
-      </c>
-      <c r="G69" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B70">
-        <v>61</v>
-      </c>
-      <c r="C70">
-        <f ca="1"/>
-        <v>100</v>
-      </c>
-      <c r="D70" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B70)),AVERAGE($C$10:C70),"")</f>
-        <v>50.918032786885249</v>
-      </c>
-      <c r="E70" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F70" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B70)),_xlfn.STDEV.S($C$10:C70),""),"")</f>
-        <v>29.476145769060565</v>
-      </c>
-      <c r="G70" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B71">
-        <v>62</v>
-      </c>
-      <c r="C71">
-        <f ca="1"/>
-        <v>14</v>
-      </c>
-      <c r="D71" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B71)),AVERAGE($C$10:C71),"")</f>
-        <v>50.322580645161288</v>
-      </c>
-      <c r="E71" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F71" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B71)),_xlfn.STDEV.S($C$10:C71),""),"")</f>
-        <v>29.607140362490423</v>
-      </c>
-      <c r="G71" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B72">
-        <v>63</v>
-      </c>
-      <c r="C72">
-        <f ca="1"/>
-        <v>27</v>
-      </c>
-      <c r="D72" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B72)),AVERAGE($C$10:C72),"")</f>
-        <v>49.952380952380949</v>
-      </c>
-      <c r="E72" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F72" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B72)),_xlfn.STDEV.S($C$10:C72),""),"")</f>
-        <v>29.51403633889856</v>
-      </c>
-      <c r="G72" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B73">
-        <v>64</v>
-      </c>
-      <c r="C73">
-        <f ca="1"/>
-        <v>92</v>
-      </c>
-      <c r="D73" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B73)),AVERAGE($C$10:C73),"")</f>
-        <v>50.609375</v>
-      </c>
-      <c r="E73" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F73" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B73)),_xlfn.STDEV.S($C$10:C73),""),"")</f>
-        <v>29.746877753994806</v>
-      </c>
-      <c r="G73" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B74">
-        <v>65</v>
-      </c>
-      <c r="C74">
-        <f ca="1"/>
-        <v>13</v>
-      </c>
-      <c r="D74" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B74)),AVERAGE($C$10:C74),"")</f>
-        <v>50.030769230769231</v>
-      </c>
-      <c r="E74" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.99</v>
-      </c>
-      <c r="F74" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B74)),_xlfn.STDEV.S($C$10:C74),""),"")</f>
-        <v>29.879952116118567</v>
-      </c>
-      <c r="G74" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B75">
-        <v>66</v>
-      </c>
-      <c r="C75">
-        <f ca="1"/>
-        <v>14</v>
-      </c>
-      <c r="D75" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B75)),AVERAGE($C$10:C75),"")</f>
-        <v>49.484848484848484</v>
-      </c>
-      <c r="E75" s="11">
-        <f t="shared" ref="E75:E138" ca="1" si="2">IF(NOT(ISBLANK($B75)),$D$6,"")</f>
-        <v>49.99</v>
-      </c>
-      <c r="F75" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B75)),_xlfn.STDEV.S($C$10:C75),""),"")</f>
-        <v>29.979091392934528</v>
-      </c>
-      <c r="G75" s="11">
-        <f t="shared" ref="G75:G138" ca="1" si="3">IF(NOT(ISBLANK($B75)),$D$7,"")</f>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B76">
-        <v>67</v>
-      </c>
-      <c r="C76">
-        <f ca="1"/>
-        <v>97</v>
-      </c>
-      <c r="D76" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B76)),AVERAGE($C$10:C76),"")</f>
-        <v>50.194029850746269</v>
-      </c>
-      <c r="E76" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F76" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B76)),_xlfn.STDEV.S($C$10:C76),""),"")</f>
-        <v>30.312133187268952</v>
-      </c>
-      <c r="G76" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B77">
-        <v>68</v>
-      </c>
-      <c r="C77">
-        <f ca="1"/>
-        <v>45</v>
-      </c>
-      <c r="D77" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B77)),AVERAGE($C$10:C77),"")</f>
-        <v>50.117647058823529</v>
-      </c>
-      <c r="E77" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F77" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B77)),_xlfn.STDEV.S($C$10:C77),""),"")</f>
-        <v>30.091665634352854</v>
-      </c>
-      <c r="G77" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B78">
-        <v>69</v>
-      </c>
-      <c r="C78">
-        <f ca="1"/>
-        <v>91</v>
-      </c>
-      <c r="D78" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B78)),AVERAGE($C$10:C78),"")</f>
-        <v>50.710144927536234</v>
-      </c>
-      <c r="E78" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F78" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B78)),_xlfn.STDEV.S($C$10:C78),""),"")</f>
-        <v>30.272342963637598</v>
-      </c>
-      <c r="G78" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B79">
-        <v>70</v>
-      </c>
-      <c r="C79">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="D79" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B79)),AVERAGE($C$10:C79),"")</f>
-        <v>50.042857142857144</v>
-      </c>
-      <c r="E79" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F79" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B79)),_xlfn.STDEV.S($C$10:C79),""),"")</f>
-        <v>30.566361976395715</v>
-      </c>
-      <c r="G79" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B80">
-        <v>71</v>
-      </c>
-      <c r="C80">
-        <f ca="1"/>
-        <v>82</v>
-      </c>
-      <c r="D80" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B80)),AVERAGE($C$10:C80),"")</f>
-        <v>50.492957746478872</v>
-      </c>
-      <c r="E80" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F80" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B80)),_xlfn.STDEV.S($C$10:C80),""),"")</f>
-        <v>30.58331629193399</v>
-      </c>
-      <c r="G80" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B81">
-        <v>72</v>
-      </c>
-      <c r="C81">
-        <f ca="1"/>
-        <v>90</v>
-      </c>
-      <c r="D81" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B81)),AVERAGE($C$10:C81),"")</f>
-        <v>51.041666666666664</v>
-      </c>
-      <c r="E81" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F81" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B81)),_xlfn.STDEV.S($C$10:C81),""),"")</f>
-        <v>30.722032970803788</v>
-      </c>
-      <c r="G81" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B82">
-        <v>73</v>
-      </c>
-      <c r="C82">
-        <f ca="1"/>
-        <v>17</v>
-      </c>
-      <c r="D82" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B82)),AVERAGE($C$10:C82),"")</f>
-        <v>50.575342465753423</v>
-      </c>
-      <c r="E82" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F82" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B82)),_xlfn.STDEV.S($C$10:C82),""),"")</f>
-        <v>30.767008759482749</v>
-      </c>
-      <c r="G82" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B83">
-        <v>74</v>
-      </c>
-      <c r="C83">
-        <f ca="1"/>
-        <v>69</v>
-      </c>
-      <c r="D83" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B83)),AVERAGE($C$10:C83),"")</f>
-        <v>50.824324324324323</v>
-      </c>
-      <c r="E83" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F83" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B83)),_xlfn.STDEV.S($C$10:C83),""),"")</f>
-        <v>30.630523816337778</v>
-      </c>
-      <c r="G83" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B84">
-        <v>75</v>
-      </c>
-      <c r="C84">
-        <f ca="1"/>
-        <v>14</v>
-      </c>
-      <c r="D84" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B84)),AVERAGE($C$10:C84),"")</f>
-        <v>50.333333333333336</v>
-      </c>
-      <c r="E84" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F84" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B84)),_xlfn.STDEV.S($C$10:C84),""),"")</f>
-        <v>30.718571428870689</v>
-      </c>
-      <c r="G84" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B85">
-        <v>76</v>
-      </c>
-      <c r="C85">
-        <f ca="1"/>
-        <v>95</v>
-      </c>
-      <c r="D85" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B85)),AVERAGE($C$10:C85),"")</f>
-        <v>50.921052631578945</v>
-      </c>
-      <c r="E85" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F85" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B85)),_xlfn.STDEV.S($C$10:C85),""),"")</f>
-        <v>30.940270698188677</v>
-      </c>
-      <c r="G85" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B86">
-        <v>77</v>
-      </c>
-      <c r="C86">
-        <f ca="1"/>
-        <v>20</v>
-      </c>
-      <c r="D86" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B86)),AVERAGE($C$10:C86),"")</f>
-        <v>50.519480519480517</v>
-      </c>
-      <c r="E86" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F86" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B86)),_xlfn.STDEV.S($C$10:C86),""),"")</f>
-        <v>30.937377491351437</v>
-      </c>
-      <c r="G86" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B87">
-        <v>78</v>
-      </c>
-      <c r="C87">
-        <f ca="1"/>
-        <v>73</v>
-      </c>
-      <c r="D87" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B87)),AVERAGE($C$10:C87),"")</f>
-        <v>50.807692307692307</v>
-      </c>
-      <c r="E87" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F87" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B87)),_xlfn.STDEV.S($C$10:C87),""),"")</f>
-        <v>30.84104942556802</v>
-      </c>
-      <c r="G87" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B88">
-        <v>79</v>
-      </c>
-      <c r="C88">
-        <f ca="1"/>
-        <v>61</v>
-      </c>
-      <c r="D88" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B88)),AVERAGE($C$10:C88),"")</f>
-        <v>50.936708860759495</v>
-      </c>
-      <c r="E88" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F88" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B88)),_xlfn.STDEV.S($C$10:C88),""),"")</f>
-        <v>30.664161731091905</v>
-      </c>
-      <c r="G88" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B89">
-        <v>80</v>
-      </c>
-      <c r="C89">
-        <f ca="1"/>
-        <v>48</v>
-      </c>
-      <c r="D89" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B89)),AVERAGE($C$10:C89),"")</f>
-        <v>50.9</v>
-      </c>
-      <c r="E89" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F89" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B89)),_xlfn.STDEV.S($C$10:C89),""),"")</f>
-        <v>30.471235658102966</v>
-      </c>
-      <c r="G89" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B90">
-        <v>81</v>
-      </c>
-      <c r="C90">
-        <f ca="1"/>
-        <v>84</v>
-      </c>
-      <c r="D90" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B90)),AVERAGE($C$10:C90),"")</f>
-        <v>51.308641975308639</v>
-      </c>
-      <c r="E90" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F90" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B90)),_xlfn.STDEV.S($C$10:C90),""),"")</f>
-        <v>30.502721999564496</v>
-      </c>
-      <c r="G90" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B91">
-        <v>82</v>
-      </c>
-      <c r="C91">
-        <f ca="1"/>
-        <v>55</v>
-      </c>
-      <c r="D91" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B91)),AVERAGE($C$10:C91),"")</f>
-        <v>51.353658536585364</v>
-      </c>
-      <c r="E91" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F91" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B91)),_xlfn.STDEV.S($C$10:C91),""),"")</f>
-        <v>30.316589579532444</v>
-      </c>
-      <c r="G91" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B92">
-        <v>83</v>
-      </c>
-      <c r="C92">
-        <f ca="1"/>
-        <v>6</v>
-      </c>
-      <c r="D92" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B92)),AVERAGE($C$10:C92),"")</f>
-        <v>50.807228915662648</v>
-      </c>
-      <c r="E92" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F92" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B92)),_xlfn.STDEV.S($C$10:C92),""),"")</f>
-        <v>30.539641504167271</v>
-      </c>
-      <c r="G92" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B93">
-        <v>84</v>
-      </c>
-      <c r="C93">
-        <f ca="1"/>
-        <v>38</v>
-      </c>
-      <c r="D93" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B93)),AVERAGE($C$10:C93),"")</f>
-        <v>50.654761904761905</v>
-      </c>
-      <c r="E93" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F93" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B93)),_xlfn.STDEV.S($C$10:C93),""),"")</f>
-        <v>30.387257176945216</v>
-      </c>
-      <c r="G93" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B94">
-        <v>85</v>
-      </c>
-      <c r="C94">
-        <f ca="1"/>
-        <v>13</v>
-      </c>
-      <c r="D94" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B94)),AVERAGE($C$10:C94),"")</f>
-        <v>50.211764705882352</v>
-      </c>
-      <c r="E94" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F94" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B94)),_xlfn.STDEV.S($C$10:C94),""),"")</f>
-        <v>30.480709792716233</v>
-      </c>
-      <c r="G94" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B95">
-        <v>86</v>
-      </c>
-      <c r="C95">
-        <f ca="1"/>
-        <v>39</v>
-      </c>
-      <c r="D95" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B95)),AVERAGE($C$10:C95),"")</f>
-        <v>50.081395348837212</v>
-      </c>
-      <c r="E95" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F95" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B95)),_xlfn.STDEV.S($C$10:C95),""),"")</f>
-        <v>30.324990709965725</v>
-      </c>
-      <c r="G95" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B96">
-        <v>87</v>
-      </c>
-      <c r="C96">
-        <f ca="1"/>
-        <v>69</v>
-      </c>
-      <c r="D96" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B96)),AVERAGE($C$10:C96),"")</f>
-        <v>50.298850574712645</v>
-      </c>
-      <c r="E96" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F96" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B96)),_xlfn.STDEV.S($C$10:C96),""),"")</f>
-        <v>30.216318917035824</v>
-      </c>
-      <c r="G96" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B97">
-        <v>88</v>
-      </c>
-      <c r="C97">
-        <f ca="1"/>
-        <v>38</v>
-      </c>
-      <c r="D97" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B97)),AVERAGE($C$10:C97),"")</f>
-        <v>50.159090909090907</v>
-      </c>
-      <c r="E97" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F97" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B97)),_xlfn.STDEV.S($C$10:C97),""),"")</f>
-        <v>30.070754251149403</v>
-      </c>
-      <c r="G97" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B98">
-        <v>89</v>
-      </c>
-      <c r="C98">
-        <f ca="1"/>
-        <v>53</v>
-      </c>
-      <c r="D98" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B98)),AVERAGE($C$10:C98),"")</f>
-        <v>50.19101123595506</v>
-      </c>
-      <c r="E98" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F98" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B98)),_xlfn.STDEV.S($C$10:C98),""),"")</f>
-        <v>29.900925952709521</v>
-      </c>
-      <c r="G98" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B99">
-        <v>90</v>
-      </c>
-      <c r="C99">
-        <f ca="1"/>
-        <v>99</v>
-      </c>
-      <c r="D99" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B99)),AVERAGE($C$10:C99),"")</f>
-        <v>50.733333333333334</v>
-      </c>
-      <c r="E99" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F99" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B99)),_xlfn.STDEV.S($C$10:C99),""),"")</f>
-        <v>30.174324974064451</v>
-      </c>
-      <c r="G99" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B100">
-        <v>91</v>
-      </c>
-      <c r="C100">
-        <f ca="1"/>
-        <v>51</v>
-      </c>
-      <c r="D100" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B100)),AVERAGE($C$10:C100),"")</f>
-        <v>50.736263736263737</v>
-      </c>
-      <c r="E100" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F100" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B100)),_xlfn.STDEV.S($C$10:C100),""),"")</f>
-        <v>30.006234598398294</v>
-      </c>
-      <c r="G100" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B101">
-        <v>92</v>
-      </c>
-      <c r="C101">
-        <f ca="1"/>
-        <v>38</v>
-      </c>
-      <c r="D101" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B101)),AVERAGE($C$10:C101),"")</f>
-        <v>50.597826086956523</v>
-      </c>
-      <c r="E101" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F101" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B101)),_xlfn.STDEV.S($C$10:C101),""),"")</f>
-        <v>29.870438097645067</v>
-      </c>
-      <c r="G101" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B102">
-        <v>93</v>
-      </c>
-      <c r="C102">
-        <f ca="1"/>
-        <v>23</v>
-      </c>
-      <c r="D102" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B102)),AVERAGE($C$10:C102),"")</f>
-        <v>50.301075268817208</v>
-      </c>
-      <c r="E102" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F102" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B102)),_xlfn.STDEV.S($C$10:C102),""),"")</f>
-        <v>29.845174741538514</v>
-      </c>
-      <c r="G102" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B103">
-        <v>94</v>
-      </c>
-      <c r="C103">
-        <f ca="1"/>
-        <v>50</v>
-      </c>
-      <c r="D103" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B103)),AVERAGE($C$10:C103),"")</f>
-        <v>50.297872340425535</v>
-      </c>
-      <c r="E103" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F103" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B103)),_xlfn.STDEV.S($C$10:C103),""),"")</f>
-        <v>29.684299382552222</v>
-      </c>
-      <c r="G103" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B104">
-        <v>95</v>
-      </c>
-      <c r="C104">
-        <f ca="1"/>
-        <v>95</v>
-      </c>
-      <c r="D104" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B104)),AVERAGE($C$10:C104),"")</f>
-        <v>50.768421052631581</v>
-      </c>
-      <c r="E104" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F104" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B104)),_xlfn.STDEV.S($C$10:C104),""),"")</f>
-        <v>29.880062601966287</v>
-      </c>
-      <c r="G104" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B105">
-        <v>96</v>
-      </c>
-      <c r="C105">
-        <f ca="1"/>
-        <v>77</v>
-      </c>
-      <c r="D105" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B105)),AVERAGE($C$10:C105),"")</f>
-        <v>51.041666666666664</v>
-      </c>
-      <c r="E105" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F105" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B105)),_xlfn.STDEV.S($C$10:C105),""),"")</f>
-        <v>29.842716352541466</v>
-      </c>
-      <c r="G105" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B106">
-        <v>97</v>
-      </c>
-      <c r="C106">
-        <f ca="1"/>
-        <v>30</v>
-      </c>
-      <c r="D106" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B106)),AVERAGE($C$10:C106),"")</f>
-        <v>50.824742268041234</v>
-      </c>
-      <c r="E106" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F106" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B106)),_xlfn.STDEV.S($C$10:C106),""),"")</f>
-        <v>29.763655937680646</v>
-      </c>
-      <c r="G106" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B107">
-        <v>98</v>
-      </c>
-      <c r="C107">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
-      <c r="D107" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B107)),AVERAGE($C$10:C107),"")</f>
-        <v>50.336734693877553</v>
-      </c>
-      <c r="E107" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F107" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B107)),_xlfn.STDEV.S($C$10:C107),""),"")</f>
-        <v>30.001355253769912</v>
-      </c>
-      <c r="G107" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B108">
-        <v>99</v>
-      </c>
-      <c r="C108">
-        <f ca="1"/>
-        <v>10</v>
-      </c>
-      <c r="D108" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B108)),AVERAGE($C$10:C108),"")</f>
-        <v>49.929292929292927</v>
-      </c>
-      <c r="E108" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F108" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B108)),_xlfn.STDEV.S($C$10:C108),""),"")</f>
-        <v>30.121946885764654</v>
-      </c>
-      <c r="G108" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B109">
-        <v>100</v>
-      </c>
-      <c r="C109">
-        <f ca="1"/>
-        <v>56</v>
-      </c>
-      <c r="D109" s="11">
-        <f ca="1">IF(NOT(ISBLANK($B109)),AVERAGE($C$10:C109),"")</f>
-        <v>49.99</v>
-      </c>
-      <c r="E109" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.99</v>
-      </c>
-      <c r="F109" s="11">
-        <f ca="1">IFERROR(IF(NOT(ISBLANK($B109)),_xlfn.STDEV.S($C$10:C109),""),"")</f>
-        <v>29.975577601194818</v>
-      </c>
-      <c r="G109" s="11">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.825323133203437</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D48" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B48)),AVERAGE($C$10:C48),"")</f>
+        <v/>
+      </c>
+      <c r="E48" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F48" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B48)),_xlfn.STDEV.S($C$10:C48),""),"")</f>
+        <v/>
+      </c>
+      <c r="G48" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D49" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B49)),AVERAGE($C$10:C49),"")</f>
+        <v/>
+      </c>
+      <c r="E49" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F49" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B49)),_xlfn.STDEV.S($C$10:C49),""),"")</f>
+        <v/>
+      </c>
+      <c r="G49" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D50" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B50)),AVERAGE($C$10:C50),"")</f>
+        <v/>
+      </c>
+      <c r="E50" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F50" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B50)),_xlfn.STDEV.S($C$10:C50),""),"")</f>
+        <v/>
+      </c>
+      <c r="G50" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D51" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B51)),AVERAGE($C$10:C51),"")</f>
+        <v/>
+      </c>
+      <c r="E51" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F51" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B51)),_xlfn.STDEV.S($C$10:C51),""),"")</f>
+        <v/>
+      </c>
+      <c r="G51" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D52" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B52)),AVERAGE($C$10:C52),"")</f>
+        <v/>
+      </c>
+      <c r="E52" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F52" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B52)),_xlfn.STDEV.S($C$10:C52),""),"")</f>
+        <v/>
+      </c>
+      <c r="G52" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D53" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B53)),AVERAGE($C$10:C53),"")</f>
+        <v/>
+      </c>
+      <c r="E53" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F53" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B53)),_xlfn.STDEV.S($C$10:C53),""),"")</f>
+        <v/>
+      </c>
+      <c r="G53" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D54" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B54)),AVERAGE($C$10:C54),"")</f>
+        <v/>
+      </c>
+      <c r="E54" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F54" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B54)),_xlfn.STDEV.S($C$10:C54),""),"")</f>
+        <v/>
+      </c>
+      <c r="G54" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D55" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B55)),AVERAGE($C$10:C55),"")</f>
+        <v/>
+      </c>
+      <c r="E55" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F55" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B55)),_xlfn.STDEV.S($C$10:C55),""),"")</f>
+        <v/>
+      </c>
+      <c r="G55" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D56" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B56)),AVERAGE($C$10:C56),"")</f>
+        <v/>
+      </c>
+      <c r="E56" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F56" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B56)),_xlfn.STDEV.S($C$10:C56),""),"")</f>
+        <v/>
+      </c>
+      <c r="G56" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D57" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B57)),AVERAGE($C$10:C57),"")</f>
+        <v/>
+      </c>
+      <c r="E57" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F57" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B57)),_xlfn.STDEV.S($C$10:C57),""),"")</f>
+        <v/>
+      </c>
+      <c r="G57" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D58" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B58)),AVERAGE($C$10:C58),"")</f>
+        <v/>
+      </c>
+      <c r="E58" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F58" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B58)),_xlfn.STDEV.S($C$10:C58),""),"")</f>
+        <v/>
+      </c>
+      <c r="G58" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D59" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B59)),AVERAGE($C$10:C59),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F59" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B59)),_xlfn.STDEV.S($C$10:C59),""),"")</f>
+        <v/>
+      </c>
+      <c r="G59" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D60" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B60)),AVERAGE($C$10:C60),"")</f>
+        <v/>
+      </c>
+      <c r="E60" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F60" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B60)),_xlfn.STDEV.S($C$10:C60),""),"")</f>
+        <v/>
+      </c>
+      <c r="G60" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D61" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B61)),AVERAGE($C$10:C61),"")</f>
+        <v/>
+      </c>
+      <c r="E61" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F61" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B61)),_xlfn.STDEV.S($C$10:C61),""),"")</f>
+        <v/>
+      </c>
+      <c r="G61" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D62" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B62)),AVERAGE($C$10:C62),"")</f>
+        <v/>
+      </c>
+      <c r="E62" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F62" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B62)),_xlfn.STDEV.S($C$10:C62),""),"")</f>
+        <v/>
+      </c>
+      <c r="G62" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D63" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B63)),AVERAGE($C$10:C63),"")</f>
+        <v/>
+      </c>
+      <c r="E63" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F63" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B63)),_xlfn.STDEV.S($C$10:C63),""),"")</f>
+        <v/>
+      </c>
+      <c r="G63" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D64" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B64)),AVERAGE($C$10:C64),"")</f>
+        <v/>
+      </c>
+      <c r="E64" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F64" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B64)),_xlfn.STDEV.S($C$10:C64),""),"")</f>
+        <v/>
+      </c>
+      <c r="G64" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D65" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B65)),AVERAGE($C$10:C65),"")</f>
+        <v/>
+      </c>
+      <c r="E65" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F65" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B65)),_xlfn.STDEV.S($C$10:C65),""),"")</f>
+        <v/>
+      </c>
+      <c r="G65" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D66" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B66)),AVERAGE($C$10:C66),"")</f>
+        <v/>
+      </c>
+      <c r="E66" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F66" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B66)),_xlfn.STDEV.S($C$10:C66),""),"")</f>
+        <v/>
+      </c>
+      <c r="G66" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D67" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B67)),AVERAGE($C$10:C67),"")</f>
+        <v/>
+      </c>
+      <c r="E67" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F67" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B67)),_xlfn.STDEV.S($C$10:C67),""),"")</f>
+        <v/>
+      </c>
+      <c r="G67" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D68" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B68)),AVERAGE($C$10:C68),"")</f>
+        <v/>
+      </c>
+      <c r="E68" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F68" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B68)),_xlfn.STDEV.S($C$10:C68),""),"")</f>
+        <v/>
+      </c>
+      <c r="G68" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D69" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B69)),AVERAGE($C$10:C69),"")</f>
+        <v/>
+      </c>
+      <c r="E69" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F69" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B69)),_xlfn.STDEV.S($C$10:C69),""),"")</f>
+        <v/>
+      </c>
+      <c r="G69" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D70" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B70)),AVERAGE($C$10:C70),"")</f>
+        <v/>
+      </c>
+      <c r="E70" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F70" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B70)),_xlfn.STDEV.S($C$10:C70),""),"")</f>
+        <v/>
+      </c>
+      <c r="G70" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D71" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B71)),AVERAGE($C$10:C71),"")</f>
+        <v/>
+      </c>
+      <c r="E71" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F71" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B71)),_xlfn.STDEV.S($C$10:C71),""),"")</f>
+        <v/>
+      </c>
+      <c r="G71" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D72" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B72)),AVERAGE($C$10:C72),"")</f>
+        <v/>
+      </c>
+      <c r="E72" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F72" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B72)),_xlfn.STDEV.S($C$10:C72),""),"")</f>
+        <v/>
+      </c>
+      <c r="G72" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D73" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B73)),AVERAGE($C$10:C73),"")</f>
+        <v/>
+      </c>
+      <c r="E73" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F73" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B73)),_xlfn.STDEV.S($C$10:C73),""),"")</f>
+        <v/>
+      </c>
+      <c r="G73" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D74" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B74)),AVERAGE($C$10:C74),"")</f>
+        <v/>
+      </c>
+      <c r="E74" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F74" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B74)),_xlfn.STDEV.S($C$10:C74),""),"")</f>
+        <v/>
+      </c>
+      <c r="G74" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D75" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B75)),AVERAGE($C$10:C75),"")</f>
+        <v/>
+      </c>
+      <c r="E75" s="11" t="str">
+        <f t="shared" ref="E75:E138" si="2">IF(NOT(ISBLANK($B75)),$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="F75" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B75)),_xlfn.STDEV.S($C$10:C75),""),"")</f>
+        <v/>
+      </c>
+      <c r="G75" s="11" t="str">
+        <f t="shared" ref="G75:G138" si="3">IF(NOT(ISBLANK($B75)),$D$7,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D76" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B76)),AVERAGE($C$10:C76),"")</f>
+        <v/>
+      </c>
+      <c r="E76" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F76" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B76)),_xlfn.STDEV.S($C$10:C76),""),"")</f>
+        <v/>
+      </c>
+      <c r="G76" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D77" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B77)),AVERAGE($C$10:C77),"")</f>
+        <v/>
+      </c>
+      <c r="E77" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F77" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B77)),_xlfn.STDEV.S($C$10:C77),""),"")</f>
+        <v/>
+      </c>
+      <c r="G77" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D78" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B78)),AVERAGE($C$10:C78),"")</f>
+        <v/>
+      </c>
+      <c r="E78" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F78" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B78)),_xlfn.STDEV.S($C$10:C78),""),"")</f>
+        <v/>
+      </c>
+      <c r="G78" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D79" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B79)),AVERAGE($C$10:C79),"")</f>
+        <v/>
+      </c>
+      <c r="E79" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F79" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B79)),_xlfn.STDEV.S($C$10:C79),""),"")</f>
+        <v/>
+      </c>
+      <c r="G79" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D80" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B80)),AVERAGE($C$10:C80),"")</f>
+        <v/>
+      </c>
+      <c r="E80" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F80" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B80)),_xlfn.STDEV.S($C$10:C80),""),"")</f>
+        <v/>
+      </c>
+      <c r="G80" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D81" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B81)),AVERAGE($C$10:C81),"")</f>
+        <v/>
+      </c>
+      <c r="E81" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F81" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B81)),_xlfn.STDEV.S($C$10:C81),""),"")</f>
+        <v/>
+      </c>
+      <c r="G81" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D82" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B82)),AVERAGE($C$10:C82),"")</f>
+        <v/>
+      </c>
+      <c r="E82" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F82" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B82)),_xlfn.STDEV.S($C$10:C82),""),"")</f>
+        <v/>
+      </c>
+      <c r="G82" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D83" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B83)),AVERAGE($C$10:C83),"")</f>
+        <v/>
+      </c>
+      <c r="E83" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F83" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B83)),_xlfn.STDEV.S($C$10:C83),""),"")</f>
+        <v/>
+      </c>
+      <c r="G83" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D84" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B84)),AVERAGE($C$10:C84),"")</f>
+        <v/>
+      </c>
+      <c r="E84" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F84" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B84)),_xlfn.STDEV.S($C$10:C84),""),"")</f>
+        <v/>
+      </c>
+      <c r="G84" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D85" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B85)),AVERAGE($C$10:C85),"")</f>
+        <v/>
+      </c>
+      <c r="E85" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F85" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B85)),_xlfn.STDEV.S($C$10:C85),""),"")</f>
+        <v/>
+      </c>
+      <c r="G85" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D86" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B86)),AVERAGE($C$10:C86),"")</f>
+        <v/>
+      </c>
+      <c r="E86" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F86" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B86)),_xlfn.STDEV.S($C$10:C86),""),"")</f>
+        <v/>
+      </c>
+      <c r="G86" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D87" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B87)),AVERAGE($C$10:C87),"")</f>
+        <v/>
+      </c>
+      <c r="E87" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F87" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B87)),_xlfn.STDEV.S($C$10:C87),""),"")</f>
+        <v/>
+      </c>
+      <c r="G87" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D88" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B88)),AVERAGE($C$10:C88),"")</f>
+        <v/>
+      </c>
+      <c r="E88" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F88" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B88)),_xlfn.STDEV.S($C$10:C88),""),"")</f>
+        <v/>
+      </c>
+      <c r="G88" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D89" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B89)),AVERAGE($C$10:C89),"")</f>
+        <v/>
+      </c>
+      <c r="E89" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F89" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B89)),_xlfn.STDEV.S($C$10:C89),""),"")</f>
+        <v/>
+      </c>
+      <c r="G89" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D90" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B90)),AVERAGE($C$10:C90),"")</f>
+        <v/>
+      </c>
+      <c r="E90" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F90" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B90)),_xlfn.STDEV.S($C$10:C90),""),"")</f>
+        <v/>
+      </c>
+      <c r="G90" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D91" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B91)),AVERAGE($C$10:C91),"")</f>
+        <v/>
+      </c>
+      <c r="E91" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F91" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B91)),_xlfn.STDEV.S($C$10:C91),""),"")</f>
+        <v/>
+      </c>
+      <c r="G91" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D92" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B92)),AVERAGE($C$10:C92),"")</f>
+        <v/>
+      </c>
+      <c r="E92" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F92" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B92)),_xlfn.STDEV.S($C$10:C92),""),"")</f>
+        <v/>
+      </c>
+      <c r="G92" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D93" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B93)),AVERAGE($C$10:C93),"")</f>
+        <v/>
+      </c>
+      <c r="E93" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F93" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B93)),_xlfn.STDEV.S($C$10:C93),""),"")</f>
+        <v/>
+      </c>
+      <c r="G93" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D94" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B94)),AVERAGE($C$10:C94),"")</f>
+        <v/>
+      </c>
+      <c r="E94" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F94" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B94)),_xlfn.STDEV.S($C$10:C94),""),"")</f>
+        <v/>
+      </c>
+      <c r="G94" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D95" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B95)),AVERAGE($C$10:C95),"")</f>
+        <v/>
+      </c>
+      <c r="E95" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F95" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B95)),_xlfn.STDEV.S($C$10:C95),""),"")</f>
+        <v/>
+      </c>
+      <c r="G95" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D96" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B96)),AVERAGE($C$10:C96),"")</f>
+        <v/>
+      </c>
+      <c r="E96" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F96" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B96)),_xlfn.STDEV.S($C$10:C96),""),"")</f>
+        <v/>
+      </c>
+      <c r="G96" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D97" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B97)),AVERAGE($C$10:C97),"")</f>
+        <v/>
+      </c>
+      <c r="E97" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F97" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B97)),_xlfn.STDEV.S($C$10:C97),""),"")</f>
+        <v/>
+      </c>
+      <c r="G97" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D98" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B98)),AVERAGE($C$10:C98),"")</f>
+        <v/>
+      </c>
+      <c r="E98" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F98" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B98)),_xlfn.STDEV.S($C$10:C98),""),"")</f>
+        <v/>
+      </c>
+      <c r="G98" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D99" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B99)),AVERAGE($C$10:C99),"")</f>
+        <v/>
+      </c>
+      <c r="E99" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F99" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B99)),_xlfn.STDEV.S($C$10:C99),""),"")</f>
+        <v/>
+      </c>
+      <c r="G99" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D100" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B100)),AVERAGE($C$10:C100),"")</f>
+        <v/>
+      </c>
+      <c r="E100" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F100" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B100)),_xlfn.STDEV.S($C$10:C100),""),"")</f>
+        <v/>
+      </c>
+      <c r="G100" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D101" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B101)),AVERAGE($C$10:C101),"")</f>
+        <v/>
+      </c>
+      <c r="E101" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F101" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B101)),_xlfn.STDEV.S($C$10:C101),""),"")</f>
+        <v/>
+      </c>
+      <c r="G101" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D102" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B102)),AVERAGE($C$10:C102),"")</f>
+        <v/>
+      </c>
+      <c r="E102" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F102" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B102)),_xlfn.STDEV.S($C$10:C102),""),"")</f>
+        <v/>
+      </c>
+      <c r="G102" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D103" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B103)),AVERAGE($C$10:C103),"")</f>
+        <v/>
+      </c>
+      <c r="E103" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F103" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B103)),_xlfn.STDEV.S($C$10:C103),""),"")</f>
+        <v/>
+      </c>
+      <c r="G103" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D104" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B104)),AVERAGE($C$10:C104),"")</f>
+        <v/>
+      </c>
+      <c r="E104" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F104" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B104)),_xlfn.STDEV.S($C$10:C104),""),"")</f>
+        <v/>
+      </c>
+      <c r="G104" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D105" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B105)),AVERAGE($C$10:C105),"")</f>
+        <v/>
+      </c>
+      <c r="E105" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F105" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B105)),_xlfn.STDEV.S($C$10:C105),""),"")</f>
+        <v/>
+      </c>
+      <c r="G105" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D106" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B106)),AVERAGE($C$10:C106),"")</f>
+        <v/>
+      </c>
+      <c r="E106" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F106" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B106)),_xlfn.STDEV.S($C$10:C106),""),"")</f>
+        <v/>
+      </c>
+      <c r="G106" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D107" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B107)),AVERAGE($C$10:C107),"")</f>
+        <v/>
+      </c>
+      <c r="E107" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F107" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B107)),_xlfn.STDEV.S($C$10:C107),""),"")</f>
+        <v/>
+      </c>
+      <c r="G107" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D108" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B108)),AVERAGE($C$10:C108),"")</f>
+        <v/>
+      </c>
+      <c r="E108" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F108" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B108)),_xlfn.STDEV.S($C$10:C108),""),"")</f>
+        <v/>
+      </c>
+      <c r="G108" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D109" s="11" t="str">
+        <f>IF(NOT(ISBLANK($B109)),AVERAGE($C$10:C109),"")</f>
+        <v/>
+      </c>
+      <c r="E109" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F109" s="11" t="str">
+        <f>IFERROR(IF(NOT(ISBLANK($B109)),_xlfn.STDEV.S($C$10:C109),""),"")</f>
+        <v/>
+      </c>
+      <c r="G109" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D110" s="11" t="str">
         <f>IF(NOT(ISBLANK($B110)),AVERAGE($C$10:C110),"")</f>
         <v/>
@@ -8506,7 +5731,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D111" s="11" t="str">
         <f>IF(NOT(ISBLANK($B111)),AVERAGE($C$10:C111),"")</f>
         <v/>
@@ -8524,7 +5749,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D112" s="11" t="str">
         <f>IF(NOT(ISBLANK($B112)),AVERAGE($C$10:C112),"")</f>
         <v/>
